--- a/gd/其他/状态机自动生成.xlsx
+++ b/gd/其他/状态机自动生成.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生成操作" sheetId="1" r:id="rId1"/>
     <sheet name="验收结果" sheetId="2" r:id="rId2"/>
-    <sheet name="新需求" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
   <si>
     <t>状态机自动生成方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,10 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>跑路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dead = true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,178 +113,256 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wugong = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fagong = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyu = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoxuanyao = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lazy = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run = false  and  dead = false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  各状态之间转换的Conditions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 各装换状态的Has Exit Time勾选规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 动作融合部分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daiji切出去的动作融合，加在10帧左右位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 非循环动作的events的最后一帧加结束事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>各状态key的命名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字对应上图转换位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件命名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnDaZhaoEnd</t>
+  </si>
+  <si>
+    <t>OnDaZhaoxuanyaoEnd</t>
+  </si>
+  <si>
+    <t>OnFaGongEnd</t>
+  </si>
+  <si>
+    <t>OnFangyuEnd</t>
+  </si>
+  <si>
+    <t>OnWinEnd</t>
+  </si>
+  <si>
+    <t>OnShoujiEnd</t>
+  </si>
+  <si>
+    <t>OnStunEnd</t>
+  </si>
+  <si>
+    <t>OnDeadEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnLazyEnd</t>
+  </si>
+  <si>
+    <t>OnWuGongEnd</t>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoxuanyao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fagong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toulan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoukong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>stun = false</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>stun = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daiji切出去的，Has Exit Time为非勾选状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切回daiji的，Has Exit Time为勾选状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has Exit Time为非勾选状态</t>
+  </si>
+  <si>
+    <t>Has Exit Time为勾选状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.循环动作，勾选LoopTime及Loop pose</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoukong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原paolu更名为paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuchang</t>
+  </si>
+  <si>
+    <t>chuchang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>蓝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wugong = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fagong = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangyu = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhaoxuanyao = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhao = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lazy = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shouji = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>run = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>run = false  and  dead = false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以生成状态机中各状态的链接关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.  各状态之间转换的Conditions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 各装换状态的Has Exit Time勾选规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>daiji切出去的，Has Exit Time为非勾选状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>切回daiji的，Has Exit Time为勾选状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 动作融合部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>daiji切出去的动作融合，加在10帧左右位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 非循环动作的events的最后一帧加结束事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>各状态key的命名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字对应上图转换位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件命名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnDaZhaoEnd</t>
-  </si>
-  <si>
-    <t>OnDaZhaoxuanyaoEnd</t>
-  </si>
-  <si>
-    <t>OnFaGongEnd</t>
-  </si>
-  <si>
-    <t>OnFangyuEnd</t>
-  </si>
-  <si>
-    <t>OnWinEnd</t>
-  </si>
-  <si>
-    <t>OnShoujiEnd</t>
-  </si>
-  <si>
-    <t>OnStunEnd</t>
-  </si>
-  <si>
-    <t>OnDeadEnd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnLazyEnd</t>
-  </si>
-  <si>
-    <t>OnWuGongEnd</t>
-  </si>
-  <si>
-    <t>dazhao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhaoxuanyao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fagong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangyu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shengli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shouji</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>siwang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>toulan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wugong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoukong</t>
+    <t>chuchang = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招生成规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新增一个key </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测目录中是否有XX@dazhao，如果没有则不必生成dazhao项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnChuChangEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：出场结束事件还没加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,13 +392,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -340,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,6 +436,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -389,7 +486,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -427,7 +524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -465,7 +562,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -606,15 +703,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>541683</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44725</xdr:rowOff>
+      <xdr:colOff>516835</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>351183</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>135834</xdr:rowOff>
+      <xdr:colOff>326335</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11595</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -623,7 +720,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4666422" y="3564834"/>
+          <a:off x="4641574" y="5097117"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1353,7 +1450,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>paolu</a:t>
+            <a:t>paobu</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2483,41 +2580,243 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223630</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135836</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3660913" y="4075043"/>
+          <a:ext cx="4053509" cy="1237423"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207065</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3644348" y="4215848"/>
+          <a:ext cx="4050195" cy="1242391"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>135836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>649357</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="形状 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8306629" y="5312466"/>
+          <a:ext cx="592206" cy="149087"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38601"/>
+            <a:gd name="adj2" fmla="val 253333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>649356</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>36442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="圆角矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7714421" y="6571420"/>
+          <a:ext cx="1184413" cy="298174"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>chuchang</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>455544</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>111884</xdr:rowOff>
+      <xdr:colOff>447262</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>51407</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="47" name="图片 46"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="687457" y="0"/>
-          <a:ext cx="5267739" cy="3010797"/>
+          <a:off x="5933662" y="7190961"/>
+          <a:ext cx="3033145" cy="3110119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,33 +2828,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447262</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>51407</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:colOff>447261</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>621196</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>16068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="48" name="图片 47"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5946914" y="3586370"/>
-          <a:ext cx="3041428" cy="3072848"/>
+          <a:off x="5933661" y="13452613"/>
+          <a:ext cx="2917135" cy="2908355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2567,33 +2866,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447261</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>16068</xdr:rowOff>
+      <xdr:colOff>438979</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>236307</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>129300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="50" name="图片 49"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5946913" y="8116956"/>
-          <a:ext cx="2923761" cy="2873568"/>
+          <a:off x="5925379" y="16797130"/>
+          <a:ext cx="4597928" cy="2610770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2604,34 +2903,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438979</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>629480</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>236307</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>129300</xdr:rowOff>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>84916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="53" name="图片 52"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5938631" y="11421717"/>
-          <a:ext cx="4609524" cy="2580952"/>
+          <a:off x="6801680" y="19973512"/>
+          <a:ext cx="3559863" cy="3790554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2642,34 +2941,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>629480</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>84916</xdr:rowOff>
+      <xdr:colOff>579784</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>91110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>414132</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>112367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="54" name="图片 53"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6816589" y="18080936"/>
-          <a:ext cx="3569802" cy="3745828"/>
+          <a:off x="10866784" y="19998360"/>
+          <a:ext cx="2577548" cy="1069007"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2680,34 +2979,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>579784</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>91110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>414132</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>112367</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109965</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="56" name="图片 55"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10891632" y="18105784"/>
-          <a:ext cx="2584174" cy="1056583"/>
+          <a:off x="2082247" y="3587197"/>
+          <a:ext cx="1539544" cy="2968120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2716,42 +3015,200 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467138</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>202096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94420</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5279334" y="3515139"/>
+          <a:ext cx="2435087" cy="3205368"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5126936" y="3503544"/>
+          <a:ext cx="2551042" cy="3362739"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>192791</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>364434</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>343728</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>5797</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2087217" y="3544956"/>
-          <a:ext cx="1542857" cy="2933333"/>
+          <a:off x="4489173" y="28823477"/>
+          <a:ext cx="2729120" cy="7832863"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53837</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>646043</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="形状 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8303315" y="3983935"/>
+          <a:ext cx="592206" cy="149087"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38601"/>
+            <a:gd name="adj2" fmla="val 253333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2800,7 +3257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2832,10 +3289,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2867,7 +3323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3043,44 +3498,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3093,29 +3548,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q182"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3150,25 +3607,25 @@
         <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="K8" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="K11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13">
       <c r="K13" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -3176,7 +3633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13">
       <c r="D16" s="3">
         <v>2</v>
       </c>
@@ -3187,12 +3644,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:16">
       <c r="K18" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:16">
       <c r="D19" s="3">
         <v>3</v>
       </c>
@@ -3200,582 +3657,1439 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:16">
+      <c r="N20" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16">
+      <c r="I22" s="3">
+        <v>15</v>
+      </c>
       <c r="K22" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:16">
       <c r="K25" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:16">
+      <c r="N27" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16">
       <c r="K29" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="4:16">
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="32" spans="4:16">
+      <c r="K32" s="1">
+        <v>17</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="2:14">
       <c r="B33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="2:14">
       <c r="B35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14">
       <c r="B36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C16:H97"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C17" s="5"/>
-      <c r="D17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C27" s="5"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C31" s="5"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C32" s="5"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C35" s="4">
-        <v>2</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C36" s="4">
-        <v>3</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C37" s="4">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>23</v>
-      </c>
+    <row r="37" spans="2:14">
+      <c r="C37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C38" s="4">
-        <v>5</v>
-      </c>
+    <row r="38" spans="2:14">
+      <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C39" s="4">
-        <v>6</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>25</v>
-      </c>
+    <row r="39" spans="2:14">
+      <c r="C39" s="5"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C40" s="4">
-        <v>7</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>27</v>
-      </c>
+    <row r="40" spans="2:14">
+      <c r="C40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D41" s="1" t="s">
+    <row r="41" spans="2:14">
+      <c r="C41" s="5"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="C42" s="5"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="C43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="C44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="C45" s="5"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="C46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="C48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="5"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="5"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="5"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="5"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="5"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="5"/>
+      <c r="D54" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="4">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="4">
+        <v>3</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="4">
+        <v>4</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="4">
+        <v>5</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="4">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="4">
+        <v>7</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="D64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="1">
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9">
+      <c r="D66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67" s="1">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C42" s="1">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
+    </row>
+    <row r="68" spans="3:9">
+      <c r="D68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9">
+      <c r="C69" s="1">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C44" s="1">
-        <v>9</v>
-      </c>
-      <c r="D44" s="1" t="s">
+    <row r="70" spans="3:9">
+      <c r="D70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E70" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9">
+      <c r="C71" s="1">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C46" s="1">
-        <v>10</v>
-      </c>
-      <c r="D46" s="1" t="s">
+    <row r="72" spans="3:9">
+      <c r="D72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E72" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="C73" s="1">
+        <v>12</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C48" s="1">
-        <v>11</v>
-      </c>
-      <c r="D48" s="1" t="s">
+    <row r="74" spans="3:9">
+      <c r="D74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E74" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" s="1">
+        <v>13</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C50" s="1">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="s">
+    <row r="76" spans="3:9">
+      <c r="D76" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E76" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="1">
+        <v>14</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C52" s="1">
-        <v>13</v>
-      </c>
-      <c r="D52" s="1" t="s">
+    <row r="78" spans="3:9">
+      <c r="D78" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C54" s="1">
-        <v>14</v>
-      </c>
-      <c r="D54" s="1" t="s">
+    <row r="79" spans="3:9">
+      <c r="C79" s="7">
+        <v>15</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="E80" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+    </row>
+    <row r="81" spans="3:10">
+      <c r="C81" s="7">
+        <v>16</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+    </row>
+    <row r="82" spans="3:10">
+      <c r="C82" s="7">
+        <v>17</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+    </row>
+    <row r="83" spans="3:10">
+      <c r="C83" s="7"/>
+      <c r="D83" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+    </row>
+    <row r="84" spans="3:10">
+      <c r="C84" s="7">
+        <v>18</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+    </row>
+    <row r="86" spans="3:10">
+      <c r="C86" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="3:10">
+      <c r="D87" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C57" s="2" t="s">
+    <row r="92" spans="3:10">
+      <c r="D92" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10">
+      <c r="D93" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="D108" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8">
+      <c r="C121" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D58" s="1" t="s">
+    <row r="122" spans="3:8">
+      <c r="D122" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D59" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C73" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="D74" s="1" t="s">
+      <c r="E122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="C87" s="2" t="s">
+      <c r="H122" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="D88" s="1" t="s">
+    <row r="123" spans="3:8">
+      <c r="E123" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E88" s="1" t="s">
+    </row>
+    <row r="124" spans="3:8">
+      <c r="E124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8">
+      <c r="E125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8">
+      <c r="E126" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8">
+      <c r="E127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8">
+      <c r="E128" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="3:17">
+      <c r="E129" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E89" s="1" t="s">
+      <c r="H129" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="3:17">
+      <c r="E130" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E90" s="1" t="s">
+      <c r="H130" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="3:17">
+      <c r="E131" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E91" s="1" t="s">
+      <c r="H131" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="3:17">
+      <c r="E132" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="3:17">
+      <c r="G133" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H133" s="7"/>
+    </row>
+    <row r="142" spans="3:17">
+      <c r="C142" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7"/>
+    </row>
+    <row r="143" spans="3:17">
+      <c r="C143" s="7"/>
+      <c r="D143" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="7"/>
+    </row>
+    <row r="144" spans="3:17">
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7"/>
+    </row>
+    <row r="145" spans="3:17">
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E92" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E93" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E94" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.35">
-      <c r="E96" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E97" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+    </row>
+    <row r="146" spans="3:17">
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+    </row>
+    <row r="147" spans="3:17">
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+    </row>
+    <row r="148" spans="3:17">
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7"/>
+    </row>
+    <row r="149" spans="3:17">
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7"/>
+    </row>
+    <row r="150" spans="3:17">
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="7"/>
+    </row>
+    <row r="151" spans="3:17">
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="7"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+    </row>
+    <row r="152" spans="3:17">
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7"/>
+    </row>
+    <row r="153" spans="3:17">
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+    </row>
+    <row r="154" spans="3:17">
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="7"/>
+    </row>
+    <row r="155" spans="3:17">
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="7"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+    </row>
+    <row r="156" spans="3:17">
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="7"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
+    </row>
+    <row r="157" spans="3:17">
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+    </row>
+    <row r="158" spans="3:17">
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+    </row>
+    <row r="159" spans="3:17">
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+    </row>
+    <row r="160" spans="3:17">
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+    </row>
+    <row r="161" spans="3:17">
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+    </row>
+    <row r="162" spans="3:17">
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+    </row>
+    <row r="163" spans="3:17">
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
+      <c r="Q163" s="7"/>
+    </row>
+    <row r="164" spans="3:17">
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7"/>
+    </row>
+    <row r="165" spans="3:17">
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+    </row>
+    <row r="166" spans="3:17">
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="7"/>
+      <c r="P166" s="7"/>
+      <c r="Q166" s="7"/>
+    </row>
+    <row r="167" spans="3:17">
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+    </row>
+    <row r="168" spans="3:17">
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+    </row>
+    <row r="169" spans="3:17">
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+    </row>
+    <row r="170" spans="3:17">
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+    </row>
+    <row r="171" spans="3:17">
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
+    </row>
+    <row r="172" spans="3:17">
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="7"/>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
+    </row>
+    <row r="173" spans="3:17">
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="7"/>
+    </row>
+    <row r="174" spans="3:17">
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+    </row>
+    <row r="175" spans="3:17">
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+    </row>
+    <row r="176" spans="3:17">
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+    </row>
+    <row r="177" spans="3:17">
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="7"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="7"/>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+    </row>
+    <row r="178" spans="3:17">
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="7"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="7"/>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+    </row>
+    <row r="179" spans="3:17">
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="7"/>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+    </row>
+    <row r="180" spans="3:17">
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="7"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="7"/>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+    </row>
+    <row r="181" spans="3:17">
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="7"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="7"/>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="7"/>
+    </row>
+    <row r="182" spans="3:17">
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="7"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="7"/>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/gd/其他/状态机自动生成.xlsx
+++ b/gd/其他/状态机自动生成.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="生成操作" sheetId="1" r:id="rId1"/>
-    <sheet name="验收结果" sheetId="2" r:id="rId2"/>
+    <sheet name="状态机逻辑" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>状态机自动生成方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,22 +141,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>lazy = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shouji = true</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>run = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>run = false  and  dead = false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.  各状态之间转换的Conditions</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,15 +193,9 @@
     <t>OnFangyuEnd</t>
   </si>
   <si>
-    <t>OnWinEnd</t>
-  </si>
-  <si>
     <t>OnShoujiEnd</t>
   </si>
   <si>
-    <t>OnStunEnd</t>
-  </si>
-  <si>
     <t>OnDeadEnd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -295,66 +277,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuchang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuchang = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招生成规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测目录中是否有XX@dazhao，如果没有则不必生成dazhao项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnChuChangEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：出场结束事件还没加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoxuanyao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fagong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toulan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>shoukong</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>shouji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu = false  and  siwang= false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoukong = false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toulan = true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此部分动作中Can Transition To Self置成非勾选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Any State可以转到的状态需要将Can Transition To Self置成非勾选</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>shengli</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>shengli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paobu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原paolu更名为paobu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chuchang</t>
-  </si>
-  <si>
-    <t>chuchang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhao = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chuchang = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招生成规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">新增一个key </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测目录中是否有XX@dazhao，如果没有则不必生成dazhao项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnChuChangEnd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：出场结束事件还没加</t>
+    <t>shoukong</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +405,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,14 +435,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -410,7 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,19 +474,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDC1A1A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2791,13 +2829,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447262</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>51407</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2829,14 +2867,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>447261</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>16068</xdr:rowOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>16067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2867,13 +2905,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>438979</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>236307</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>129300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2905,13 +2943,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>629480</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>66262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>84916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2943,13 +2981,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>579784</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>91110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>414132</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>112367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2969,44 +3007,6 @@
         <a:xfrm>
           <a:off x="10866784" y="19998360"/>
           <a:ext cx="2577548" cy="1069007"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>109965</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>59267</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="图片 55"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2082247" y="3587197"/>
-          <a:ext cx="1539544" cy="2968120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3113,20 +3113,180 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>364434</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>343728</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>5797</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546651</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>74542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>525945</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>38927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6129129" y="28028346"/>
+          <a:ext cx="2729120" cy="7832863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53837</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>646043</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="形状 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8303315" y="3983935"/>
+          <a:ext cx="592206" cy="149087"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -38601"/>
+            <a:gd name="adj2" fmla="val 253333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1234109" y="31192304"/>
+          <a:ext cx="1830456" cy="231913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="DC1A1A"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431524</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3140,8 +3300,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4489173" y="28823477"/>
-          <a:ext cx="2729120" cy="7832863"/>
+          <a:off x="2062370" y="39342391"/>
+          <a:ext cx="4639089" cy="3503543"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3156,59 +3316,6 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53837</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>646043</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="形状 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="3"/>
-          <a:endCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8303315" y="3983935"/>
-          <a:ext cx="592206" cy="149087"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -38601"/>
-            <a:gd name="adj2" fmla="val 253333"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3549,10 +3656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q182"/>
+  <dimension ref="A1:Q177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3607,7 +3714,7 @@
         <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3658,7 +3765,7 @@
       </c>
     </row>
     <row r="20" spans="4:16">
-      <c r="N20" s="11">
+      <c r="N20" s="7">
         <v>18</v>
       </c>
     </row>
@@ -3684,44 +3791,42 @@
       <c r="K29" s="1">
         <v>14</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
     </row>
     <row r="30" spans="4:16">
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P30" s="7"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
     </row>
     <row r="32" spans="4:16">
       <c r="K32" s="1">
         <v>17</v>
       </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="4"/>
@@ -3735,7 +3840,7 @@
     </row>
     <row r="37" spans="2:14">
       <c r="C37" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3746,7 +3851,7 @@
     <row r="38" spans="2:14">
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3755,90 +3860,101 @@
     </row>
     <row r="39" spans="2:14">
       <c r="C39" s="5"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="2:14">
       <c r="C40" s="5"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="2:14">
       <c r="C41" s="5"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:14">
       <c r="C42" s="5"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="2:14">
       <c r="C43" s="5"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:14">
       <c r="C44" s="5"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:14">
       <c r="C45" s="5"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="2:14">
       <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="2:14">
       <c r="C47" s="5"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="2:14">
       <c r="C48" s="5"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="5"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="3:8">
@@ -3850,7 +3966,9 @@
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="3:8">
-      <c r="C51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -3858,45 +3976,60 @@
       <c r="H51" s="4"/>
     </row>
     <row r="52" spans="3:8">
-      <c r="C52" s="5"/>
-      <c r="D52" s="4"/>
+      <c r="C52" s="4">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="3:8">
-      <c r="C53" s="5"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="4">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="3:8">
-      <c r="C54" s="5"/>
-      <c r="D54" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="C54" s="4">
+        <v>3</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="3:8">
-      <c r="C55" s="5"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="4">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="3:8">
-      <c r="C56" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="4"/>
+      <c r="C56" s="4">
+        <v>5</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3904,10 +4037,10 @@
     </row>
     <row r="57" spans="3:8">
       <c r="C57" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -3916,1175 +4049,1178 @@
     </row>
     <row r="58" spans="3:8">
       <c r="C58" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
     <row r="59" spans="3:8">
-      <c r="C59" s="4">
-        <v>3</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="D59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="60" spans="3:8">
-      <c r="C60" s="4">
-        <v>4</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="C60" s="1">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="D61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="3:8">
-      <c r="C61" s="4">
-        <v>5</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="3:8">
-      <c r="C62" s="4">
-        <v>6</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="1">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="D63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="1">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="D65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="C66" s="1">
+        <v>11</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="D67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="C68" s="1">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="D69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4">
+        <v>13</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4">
+        <v>14</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4">
+        <v>15</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="3:8">
-      <c r="C63" s="4">
-        <v>7</v>
-      </c>
-      <c r="D63" s="4" t="s">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4">
+        <v>16</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="D64" s="1" t="s">
+      <c r="E76" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4">
+        <v>17</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E78" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="3:9">
-      <c r="C65" s="1">
-        <v>8</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9">
-      <c r="D66" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9">
-      <c r="C67" s="1">
-        <v>9</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9">
-      <c r="D68" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9">
-      <c r="C69" s="1">
-        <v>10</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9">
-      <c r="D70" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9">
-      <c r="C71" s="1">
-        <v>11</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9">
-      <c r="D72" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9">
-      <c r="C73" s="1">
-        <v>12</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9">
-      <c r="D74" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9">
-      <c r="C75" s="1">
-        <v>13</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9">
-      <c r="D76" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="3:9">
-      <c r="C77" s="1">
-        <v>14</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4">
+        <v>18</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="3:9">
-      <c r="D78" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="1" t="s">
+    <row r="87" spans="2:10">
+      <c r="D87" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="D88" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="3:9">
-      <c r="C79" s="7">
-        <v>15</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7" t="s">
+    <row r="103" spans="3:4">
+      <c r="D103" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="3:10">
+      <c r="C115" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="3:10">
+      <c r="D116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="3:10">
+      <c r="E117" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10">
+      <c r="E118" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="3:10">
+      <c r="E119" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="3:10">
+      <c r="E120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" spans="3:10">
+      <c r="E121" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="3:10">
+      <c r="E122" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="3:10">
+      <c r="E123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="3:10">
+      <c r="D124" s="4"/>
+      <c r="E124" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="3:10">
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="134" spans="3:17">
+      <c r="C134" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="4"/>
+      <c r="Q134" s="4"/>
+    </row>
+    <row r="135" spans="3:17">
+      <c r="C135" s="4"/>
+      <c r="D135" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E135" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="3:9">
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80" s="7" t="s">
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+    </row>
+    <row r="136" spans="3:17">
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="3:10">
-      <c r="C81" s="7">
-        <v>16</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="3:10">
-      <c r="C82" s="7">
-        <v>17</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="3:10">
-      <c r="C83" s="7"/>
-      <c r="D83" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="3:10">
-      <c r="C84" s="7">
-        <v>18</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="86" spans="3:10">
-      <c r="C86" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="7"/>
-    </row>
-    <row r="87" spans="3:10">
-      <c r="D87" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="91" spans="3:10">
-      <c r="C91" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" spans="3:10">
-      <c r="D92" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="3:10">
-      <c r="D93" s="1" t="s">
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+    </row>
+    <row r="137" spans="3:17">
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="4"/>
+      <c r="N137" s="4"/>
+      <c r="O137" s="4"/>
+      <c r="P137" s="4"/>
+      <c r="Q137" s="4"/>
+    </row>
+    <row r="138" spans="3:17">
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="D108" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8">
-      <c r="C121" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8">
-      <c r="D122" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="3:8">
-      <c r="E123" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="124" spans="3:8">
-      <c r="E124" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="3:8">
-      <c r="E125" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="3:8">
-      <c r="E126" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="3:8">
-      <c r="E127" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="3:8">
-      <c r="E128" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="3:17">
-      <c r="E129" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130" spans="3:17">
-      <c r="E130" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="131" spans="3:17">
-      <c r="E131" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="132" spans="3:17">
-      <c r="E132" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="3:17">
-      <c r="G133" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H133" s="7"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="4"/>
+      <c r="O138" s="4"/>
+      <c r="P138" s="4"/>
+      <c r="Q138" s="4"/>
+    </row>
+    <row r="139" spans="3:17">
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+    </row>
+    <row r="140" spans="3:17">
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="4"/>
+      <c r="O140" s="4"/>
+      <c r="P140" s="4"/>
+      <c r="Q140" s="4"/>
+    </row>
+    <row r="141" spans="3:17">
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
     </row>
     <row r="142" spans="3:17">
-      <c r="C142" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="7"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
     </row>
     <row r="143" spans="3:17">
-      <c r="C143" s="7"/>
-      <c r="D143" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
-      <c r="Q143" s="7"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
     </row>
     <row r="144" spans="3:17">
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="7"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
     </row>
     <row r="145" spans="3:17">
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="7"/>
-      <c r="M145" s="7"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="7"/>
-      <c r="P145" s="7"/>
-      <c r="Q145" s="7"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="4"/>
+      <c r="N145" s="4"/>
+      <c r="O145" s="4"/>
+      <c r="P145" s="4"/>
+      <c r="Q145" s="4"/>
     </row>
     <row r="146" spans="3:17">
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="7"/>
-      <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="7"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
     </row>
     <row r="147" spans="3:17">
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="7"/>
-      <c r="L147" s="7"/>
-      <c r="M147" s="7"/>
-      <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
-      <c r="P147" s="7"/>
-      <c r="Q147" s="7"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
     </row>
     <row r="148" spans="3:17">
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="7"/>
-      <c r="M148" s="7"/>
-      <c r="N148" s="7"/>
-      <c r="O148" s="7"/>
-      <c r="P148" s="7"/>
-      <c r="Q148" s="7"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
     </row>
     <row r="149" spans="3:17">
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
-      <c r="J149" s="7"/>
-      <c r="K149" s="7"/>
-      <c r="L149" s="7"/>
-      <c r="M149" s="7"/>
-      <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="7"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
     </row>
     <row r="150" spans="3:17">
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
-      <c r="L150" s="7"/>
-      <c r="M150" s="7"/>
-      <c r="N150" s="7"/>
-      <c r="O150" s="7"/>
-      <c r="P150" s="7"/>
-      <c r="Q150" s="7"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
     </row>
     <row r="151" spans="3:17">
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
-      <c r="L151" s="7"/>
-      <c r="M151" s="7"/>
-      <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
-      <c r="P151" s="7"/>
-      <c r="Q151" s="7"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
     </row>
     <row r="152" spans="3:17">
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="7"/>
-      <c r="M152" s="7"/>
-      <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
-      <c r="P152" s="7"/>
-      <c r="Q152" s="7"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+      <c r="Q152" s="4"/>
     </row>
     <row r="153" spans="3:17">
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="7"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="4"/>
+      <c r="N153" s="4"/>
+      <c r="O153" s="4"/>
+      <c r="P153" s="4"/>
+      <c r="Q153" s="4"/>
     </row>
     <row r="154" spans="3:17">
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="7"/>
-      <c r="J154" s="7"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="7"/>
-      <c r="M154" s="7"/>
-      <c r="N154" s="7"/>
-      <c r="O154" s="7"/>
-      <c r="P154" s="7"/>
-      <c r="Q154" s="7"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
     </row>
     <row r="155" spans="3:17">
-      <c r="C155" s="7"/>
-      <c r="D155" s="7"/>
-      <c r="E155" s="7"/>
-      <c r="F155" s="7"/>
-      <c r="G155" s="7"/>
-      <c r="H155" s="7"/>
-      <c r="I155" s="7"/>
-      <c r="J155" s="7"/>
-      <c r="K155" s="7"/>
-      <c r="L155" s="7"/>
-      <c r="M155" s="7"/>
-      <c r="N155" s="7"/>
-      <c r="O155" s="7"/>
-      <c r="P155" s="7"/>
-      <c r="Q155" s="7"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+      <c r="Q155" s="4"/>
     </row>
     <row r="156" spans="3:17">
-      <c r="C156" s="7"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
-      <c r="L156" s="7"/>
-      <c r="M156" s="7"/>
-      <c r="N156" s="7"/>
-      <c r="O156" s="7"/>
-      <c r="P156" s="7"/>
-      <c r="Q156" s="7"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="4"/>
+      <c r="J156" s="4"/>
+      <c r="K156" s="4"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="4"/>
+      <c r="N156" s="4"/>
+      <c r="O156" s="4"/>
+      <c r="P156" s="4"/>
+      <c r="Q156" s="4"/>
     </row>
     <row r="157" spans="3:17">
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
-      <c r="H157" s="7"/>
-      <c r="I157" s="7"/>
-      <c r="J157" s="7"/>
-      <c r="K157" s="7"/>
-      <c r="L157" s="7"/>
-      <c r="M157" s="7"/>
-      <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
-      <c r="P157" s="7"/>
-      <c r="Q157" s="7"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="4"/>
+      <c r="O157" s="4"/>
+      <c r="P157" s="4"/>
+      <c r="Q157" s="4"/>
     </row>
     <row r="158" spans="3:17">
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="7"/>
-      <c r="I158" s="7"/>
-      <c r="J158" s="7"/>
-      <c r="K158" s="7"/>
-      <c r="L158" s="7"/>
-      <c r="M158" s="7"/>
-      <c r="N158" s="7"/>
-      <c r="O158" s="7"/>
-      <c r="P158" s="7"/>
-      <c r="Q158" s="7"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
+      <c r="N158" s="4"/>
+      <c r="O158" s="4"/>
+      <c r="P158" s="4"/>
+      <c r="Q158" s="4"/>
     </row>
     <row r="159" spans="3:17">
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-      <c r="H159" s="7"/>
-      <c r="I159" s="7"/>
-      <c r="J159" s="7"/>
-      <c r="K159" s="7"/>
-      <c r="L159" s="7"/>
-      <c r="M159" s="7"/>
-      <c r="N159" s="7"/>
-      <c r="O159" s="7"/>
-      <c r="P159" s="7"/>
-      <c r="Q159" s="7"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
     </row>
     <row r="160" spans="3:17">
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="7"/>
-      <c r="I160" s="7"/>
-      <c r="J160" s="7"/>
-      <c r="K160" s="7"/>
-      <c r="L160" s="7"/>
-      <c r="M160" s="7"/>
-      <c r="N160" s="7"/>
-      <c r="O160" s="7"/>
-      <c r="P160" s="7"/>
-      <c r="Q160" s="7"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
+      <c r="N160" s="4"/>
+      <c r="O160" s="4"/>
+      <c r="P160" s="4"/>
+      <c r="Q160" s="4"/>
     </row>
     <row r="161" spans="3:17">
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
-      <c r="G161" s="7"/>
-      <c r="H161" s="7"/>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
-      <c r="L161" s="7"/>
-      <c r="M161" s="7"/>
-      <c r="N161" s="7"/>
-      <c r="O161" s="7"/>
-      <c r="P161" s="7"/>
-      <c r="Q161" s="7"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="4"/>
+      <c r="O161" s="4"/>
+      <c r="P161" s="4"/>
+      <c r="Q161" s="4"/>
     </row>
     <row r="162" spans="3:17">
-      <c r="C162" s="7"/>
-      <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="7"/>
-      <c r="H162" s="7"/>
-      <c r="I162" s="7"/>
-      <c r="J162" s="7"/>
-      <c r="K162" s="7"/>
-      <c r="L162" s="7"/>
-      <c r="M162" s="7"/>
-      <c r="N162" s="7"/>
-      <c r="O162" s="7"/>
-      <c r="P162" s="7"/>
-      <c r="Q162" s="7"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
+      <c r="N162" s="4"/>
+      <c r="O162" s="4"/>
+      <c r="P162" s="4"/>
+      <c r="Q162" s="4"/>
     </row>
     <row r="163" spans="3:17">
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
-      <c r="K163" s="7"/>
-      <c r="L163" s="7"/>
-      <c r="M163" s="7"/>
-      <c r="N163" s="7"/>
-      <c r="O163" s="7"/>
-      <c r="P163" s="7"/>
-      <c r="Q163" s="7"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="4"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="4"/>
+      <c r="Q163" s="4"/>
     </row>
     <row r="164" spans="3:17">
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
-      <c r="F164" s="7"/>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="7"/>
-      <c r="L164" s="7"/>
-      <c r="M164" s="7"/>
-      <c r="N164" s="7"/>
-      <c r="O164" s="7"/>
-      <c r="P164" s="7"/>
-      <c r="Q164" s="7"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
     </row>
     <row r="165" spans="3:17">
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="7"/>
-      <c r="L165" s="7"/>
-      <c r="M165" s="7"/>
-      <c r="N165" s="7"/>
-      <c r="O165" s="7"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="7"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
     </row>
     <row r="166" spans="3:17">
-      <c r="C166" s="7"/>
-      <c r="D166" s="7"/>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="7"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="7"/>
-      <c r="L166" s="7"/>
-      <c r="M166" s="7"/>
-      <c r="N166" s="7"/>
-      <c r="O166" s="7"/>
-      <c r="P166" s="7"/>
-      <c r="Q166" s="7"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
     </row>
     <row r="167" spans="3:17">
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
-      <c r="F167" s="7"/>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7"/>
-      <c r="I167" s="7"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
-      <c r="L167" s="7"/>
-      <c r="M167" s="7"/>
-      <c r="N167" s="7"/>
-      <c r="O167" s="7"/>
-      <c r="P167" s="7"/>
-      <c r="Q167" s="7"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
     </row>
     <row r="168" spans="3:17">
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7"/>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
-      <c r="L168" s="7"/>
-      <c r="M168" s="7"/>
-      <c r="N168" s="7"/>
-      <c r="O168" s="7"/>
-      <c r="P168" s="7"/>
-      <c r="Q168" s="7"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
     </row>
     <row r="169" spans="3:17">
-      <c r="C169" s="7"/>
-      <c r="D169" s="7"/>
-      <c r="E169" s="7"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="7"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
-      <c r="L169" s="7"/>
-      <c r="M169" s="7"/>
-      <c r="N169" s="7"/>
-      <c r="O169" s="7"/>
-      <c r="P169" s="7"/>
-      <c r="Q169" s="7"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="4"/>
+      <c r="L169" s="4"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="4"/>
+      <c r="O169" s="4"/>
+      <c r="P169" s="4"/>
+      <c r="Q169" s="4"/>
     </row>
     <row r="170" spans="3:17">
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="7"/>
-      <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-      <c r="N170" s="7"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="7"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
     </row>
     <row r="171" spans="3:17">
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
-      <c r="G171" s="7"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
-      <c r="N171" s="7"/>
-      <c r="O171" s="7"/>
-      <c r="P171" s="7"/>
-      <c r="Q171" s="7"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
     </row>
     <row r="172" spans="3:17">
-      <c r="C172" s="7"/>
-      <c r="D172" s="7"/>
-      <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
-      <c r="L172" s="7"/>
-      <c r="M172" s="7"/>
-      <c r="N172" s="7"/>
-      <c r="O172" s="7"/>
-      <c r="P172" s="7"/>
-      <c r="Q172" s="7"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
     </row>
     <row r="173" spans="3:17">
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7"/>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="7"/>
-      <c r="M173" s="7"/>
-      <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="7"/>
+      <c r="C173" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
     </row>
     <row r="174" spans="3:17">
-      <c r="C174" s="7"/>
-      <c r="D174" s="7"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
-      <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="7"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
     </row>
     <row r="175" spans="3:17">
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="7"/>
-      <c r="M175" s="7"/>
-      <c r="N175" s="7"/>
-      <c r="O175" s="7"/>
-      <c r="P175" s="7"/>
-      <c r="Q175" s="7"/>
+      <c r="D175" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="176" spans="3:17">
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
-      <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
-      <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
-      <c r="N176" s="7"/>
-      <c r="O176" s="7"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="7"/>
-    </row>
-    <row r="177" spans="3:17">
-      <c r="C177" s="7"/>
-      <c r="D177" s="7"/>
-      <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
-      <c r="G177" s="7"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="7"/>
-      <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
-      <c r="L177" s="7"/>
-      <c r="M177" s="7"/>
-      <c r="N177" s="7"/>
-      <c r="O177" s="7"/>
-      <c r="P177" s="7"/>
-      <c r="Q177" s="7"/>
-    </row>
-    <row r="178" spans="3:17">
-      <c r="C178" s="7"/>
-      <c r="D178" s="7"/>
-      <c r="E178" s="7"/>
-      <c r="F178" s="7"/>
-      <c r="G178" s="7"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="7"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="7"/>
-      <c r="L178" s="7"/>
-      <c r="M178" s="7"/>
-      <c r="N178" s="7"/>
-      <c r="O178" s="7"/>
-      <c r="P178" s="7"/>
-      <c r="Q178" s="7"/>
-    </row>
-    <row r="179" spans="3:17">
-      <c r="C179" s="7"/>
-      <c r="D179" s="7"/>
-      <c r="E179" s="7"/>
-      <c r="F179" s="7"/>
-      <c r="G179" s="7"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="7"/>
-      <c r="J179" s="7"/>
-      <c r="K179" s="7"/>
-      <c r="L179" s="7"/>
-      <c r="M179" s="7"/>
-      <c r="N179" s="7"/>
-      <c r="O179" s="7"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="7"/>
-    </row>
-    <row r="180" spans="3:17">
-      <c r="C180" s="7"/>
-      <c r="D180" s="7"/>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
-      <c r="G180" s="7"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="7"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
-      <c r="L180" s="7"/>
-      <c r="M180" s="7"/>
-      <c r="N180" s="7"/>
-      <c r="O180" s="7"/>
-      <c r="P180" s="7"/>
-      <c r="Q180" s="7"/>
-    </row>
-    <row r="181" spans="3:17">
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="F181" s="7"/>
-      <c r="G181" s="7"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="7"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
-      <c r="L181" s="7"/>
-      <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="7"/>
-    </row>
-    <row r="182" spans="3:17">
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="7"/>
-      <c r="F182" s="7"/>
-      <c r="G182" s="7"/>
-      <c r="H182" s="7"/>
-      <c r="I182" s="7"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
-      <c r="L182" s="7"/>
-      <c r="M182" s="7"/>
-      <c r="N182" s="7"/>
-      <c r="O182" s="7"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="7"/>
+      <c r="D176" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8">
+      <c r="C177" s="9"/>
+      <c r="D177" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="9"/>
+      <c r="H177" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/gd/其他/状态机自动生成.xlsx
+++ b/gd/其他/状态机自动生成.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="生成操作" sheetId="1" r:id="rId1"/>
     <sheet name="状态机逻辑" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
   <si>
     <t>状态机自动生成方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,66 +94,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dead = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dead = false    and    win = true   and   stun = false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun = true  and  dead = false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dead = false and  win = false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wugong = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fagong = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangyu = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhaoxuanyao = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhao = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shouji = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.  各状态之间转换的Conditions</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. 各装换状态的Has Exit Time勾选规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 动作融合部分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -173,10 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数字对应上图转换位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>事件命名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,33 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>shouji = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun = false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stun = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>daiji切出去的，Has Exit Time为非勾选状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>切回daiji的，Has Exit Time为勾选状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Has Exit Time为非勾选状态</t>
-  </si>
-  <si>
-    <t>Has Exit Time为勾选状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>daiji</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -289,26 +203,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dazhao = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chuchang = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大招生成规则</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检测目录中是否有XX@dazhao，如果没有则不必生成dazhao项</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>跑步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,10 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注：出场结束事件还没加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>siwang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -365,22 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>paobu = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paobu = false  and  siwang= false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoukong = false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>toulan = true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>此部分动作中Can Transition To Self置成非勾选</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -398,6 +276,122 @@
   </si>
   <si>
     <t>shoukong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态转换参数设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuchang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fagong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toulan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoukong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoxuanyao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoukong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key值：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has Exit time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has Exit time：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测目录中是否有XX@dazhao，如果没有则不必生成dazhao项及相关Transition</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,15 +618,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>530088</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>339588</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -642,7 +636,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4696240" y="944217"/>
+          <a:off x="4050197" y="1772478"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -741,15 +735,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>516835</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127552</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>326335</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>11595</xdr:rowOff>
+      <xdr:colOff>177249</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>674205</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36443</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -758,7 +752,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4641574" y="5097117"/>
+          <a:off x="4384814" y="1187726"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -798,16 +792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>405848</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215348</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -816,8 +810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2468218" y="1540565"/>
-          <a:ext cx="1184413" cy="298174"/>
+          <a:off x="9881153" y="6543261"/>
+          <a:ext cx="1267239" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -856,16 +850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409161</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127552</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>218661</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11595</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127553</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -874,8 +868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2471531" y="2198204"/>
-          <a:ext cx="1184413" cy="298174"/>
+          <a:off x="8459857" y="392595"/>
+          <a:ext cx="1267239" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -914,16 +908,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339586</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -932,8 +926,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="2890630"/>
-          <a:ext cx="1184413" cy="298174"/>
+          <a:off x="5342282" y="5565913"/>
+          <a:ext cx="1267239" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -972,16 +966,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>546652</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>720586</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -990,8 +984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="737152" y="2385391"/>
-          <a:ext cx="1184413" cy="298175"/>
+          <a:off x="2782956" y="1292087"/>
+          <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1034,16 +1028,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>679174</xdr:colOff>
+      <xdr:colOff>323022</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
+      <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1052,7 +1046,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7744239" y="1126434"/>
+          <a:off x="8655326" y="969064"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1093,15 +1087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>193812</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>135834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>3312</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19878</xdr:rowOff>
+      <xdr:colOff>168964</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>185530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>665921</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1110,7 +1104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7755834" y="1792356"/>
+          <a:off x="7813812" y="2049117"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1150,16 +1144,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188843</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>172278</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56321</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>39756</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>536712</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1168,7 +1162,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7750865" y="2449995"/>
+          <a:off x="11121886" y="2259495"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1324,16 +1318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>670892</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>604630</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1342,7 +1336,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7735957" y="4538870"/>
+          <a:off x="11189804" y="5449957"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1382,16 +1376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>193814</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>649357</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>77857</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607943</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417443</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1400,7 +1394,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7714422" y="5163379"/>
+          <a:off x="4128052" y="6679097"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1441,15 +1435,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563218</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>646044</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1458,7 +1452,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7711109" y="5872370"/>
+          <a:off x="7711109" y="5582478"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1498,14 +1492,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434839</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>443120</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
@@ -1518,9 +1512,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5255316" y="2277717"/>
-          <a:ext cx="33131" cy="886239"/>
+        <a:xfrm>
+          <a:off x="4642404" y="2070652"/>
+          <a:ext cx="695738" cy="1093304"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1548,314 +1542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215348</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323022</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3652631" y="2724978"/>
-          <a:ext cx="1043608" cy="455544"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>218661</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>207065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>538370</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>69574</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3655944" y="3313043"/>
-          <a:ext cx="1007165" cy="69574"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>140804</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3660913" y="3453848"/>
-          <a:ext cx="1085022" cy="621195"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>641902</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>405848</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直接箭头连接符 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="0"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1329359" y="2724978"/>
-          <a:ext cx="1138859" cy="488674"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>546652</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409161</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>69574</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1921565" y="3362739"/>
-          <a:ext cx="549966" cy="19878"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>641902</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>140804</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1329359" y="3511826"/>
-          <a:ext cx="1147141" cy="563217"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91109</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57979</xdr:rowOff>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1866,8 +1562,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5590761" y="1275521"/>
-          <a:ext cx="2153478" cy="1888436"/>
+          <a:off x="5665304" y="1118151"/>
+          <a:ext cx="2990022" cy="2029240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1896,15 +1592,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>281609</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>77856</xdr:rowOff>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>193812</xdr:colOff>
+      <xdr:colOff>168964</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1915,8 +1611,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5781261" y="1941443"/>
-          <a:ext cx="1974573" cy="1230796"/>
+          <a:off x="5897217" y="2198204"/>
+          <a:ext cx="1916595" cy="957470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1946,12 +1642,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>347870</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>188843</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>39756</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>207065</xdr:rowOff>
     </xdr:to>
@@ -1965,8 +1661,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5847522" y="2599082"/>
-          <a:ext cx="1903343" cy="713961"/>
+          <a:off x="5930348" y="2408582"/>
+          <a:ext cx="5191538" cy="904461"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2045,26 +1741,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>339587</xdr:colOff>
+      <xdr:colOff>364435</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>115957</xdr:rowOff>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>149086</xdr:colOff>
+      <xdr:colOff>173934</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="49" name="直接箭头连接符 48"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="13" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5839239" y="3429000"/>
+          <a:off x="5946913" y="3395869"/>
           <a:ext cx="1871869" cy="554935"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2094,27 +1788,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>331305</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="52" name="直接箭头连接符 51"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
           <a:endCxn id="14" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5830957" y="3445565"/>
-          <a:ext cx="1905000" cy="1242392"/>
+          <a:off x="5930348" y="3313043"/>
+          <a:ext cx="5259456" cy="2286001"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2142,28 +1837,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198783</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>512694</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>135836</xdr:rowOff>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>443120</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53010</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="55" name="直接箭头连接符 54"/>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="15" idx="1"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5698435" y="3470413"/>
-          <a:ext cx="2015987" cy="1842053"/>
+        <a:xfrm flipH="1">
+          <a:off x="4720259" y="3462130"/>
+          <a:ext cx="617883" cy="3216967"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2192,15 +1888,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>41413</xdr:colOff>
+      <xdr:colOff>107674</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>157370</xdr:rowOff>
+      <xdr:rowOff>198783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>16566</xdr:rowOff>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2211,8 +1907,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5541065" y="3470413"/>
-          <a:ext cx="2170044" cy="2551044"/>
+          <a:off x="5690152" y="3511826"/>
+          <a:ext cx="2020957" cy="2219739"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2241,13 +1937,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>629479</xdr:colOff>
+      <xdr:colOff>629480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>198782</xdr:colOff>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248479</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
@@ -2258,8 +1954,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5441675" y="1126435"/>
-          <a:ext cx="2319129" cy="2045804"/>
+          <a:off x="5524502" y="1068457"/>
+          <a:ext cx="3056281" cy="2103782"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2289,12 +1985,12 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>157369</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>182218</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
@@ -2305,8 +2001,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5690152" y="1813891"/>
-          <a:ext cx="2054088" cy="1333500"/>
+          <a:off x="5772978" y="2070652"/>
+          <a:ext cx="2062370" cy="1076739"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2335,13 +2031,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>331305</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>198782</xdr:colOff>
+      <xdr:colOff>331307</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:to>
@@ -2352,8 +2048,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5830957" y="2468217"/>
-          <a:ext cx="1929847" cy="728870"/>
+          <a:off x="5913785" y="2269435"/>
+          <a:ext cx="5201476" cy="927652"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2384,11 +2080,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>347870</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
+      <xdr:colOff>198782</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>207065</xdr:rowOff>
     </xdr:to>
@@ -2401,8 +2097,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5847522" y="3155674"/>
-          <a:ext cx="1871870" cy="157369"/>
+          <a:off x="5930348" y="3163957"/>
+          <a:ext cx="1913282" cy="149086"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2480,15 +2176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>289891</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>107674</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2497,8 +2193,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5789543" y="3503543"/>
-          <a:ext cx="1946415" cy="1292088"/>
+          <a:off x="5963478" y="3470413"/>
+          <a:ext cx="5226326" cy="2261152"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2526,16 +2222,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>165653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>91108</xdr:rowOff>
+      <xdr:colOff>231913</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2543,9 +2239,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5607326" y="3478696"/>
-          <a:ext cx="2120348" cy="1996108"/>
+        <a:xfrm flipV="1">
+          <a:off x="4555435" y="5855804"/>
+          <a:ext cx="1258956" cy="786848"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2576,13 +2272,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>604630</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
+      <xdr:rowOff>198784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2591,8 +2287,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5416826" y="3511826"/>
-          <a:ext cx="2286000" cy="2658717"/>
+          <a:off x="5499652" y="3511827"/>
+          <a:ext cx="2161761" cy="2302564"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2620,29 +2316,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>223630</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>140804</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>135836</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>512694</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393424</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>53010</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="15" idx="1"/>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3660913" y="4075043"/>
-          <a:ext cx="4053509" cy="1237423"/>
+        <a:xfrm flipH="1">
+          <a:off x="4720259" y="5864087"/>
+          <a:ext cx="1255643" cy="815010"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2670,16 +2366,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>207065</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>132521</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74543</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>339587</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>331305</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2687,9 +2383,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3644348" y="4215848"/>
-          <a:ext cx="4050195" cy="1242391"/>
+        <a:xfrm flipH="1">
+          <a:off x="4547152" y="3495261"/>
+          <a:ext cx="679175" cy="3155674"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2717,16 +2413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>135836</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>649357</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>77857</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>512694</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>202097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417443</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144119</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2738,7 +2434,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8306629" y="5312466"/>
+          <a:off x="4720259" y="6828184"/>
           <a:ext cx="592206" cy="149087"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
@@ -2770,16 +2466,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>649356</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>36442</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>376029</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102703</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2788,7 +2484,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7714421" y="6571420"/>
+          <a:off x="2438399" y="3056281"/>
           <a:ext cx="1184413" cy="298174"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2827,16 +2523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447262</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>662611</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>51407</xdr:colOff>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266756</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2853,8 +2549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5933662" y="7190961"/>
-          <a:ext cx="3033145" cy="3110119"/>
+          <a:off x="9425611" y="10858500"/>
+          <a:ext cx="3041428" cy="3072848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2865,16 +2561,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447261</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>621196</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>16067</xdr:rowOff>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>107177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2891,8 +2587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5933661" y="13452613"/>
-          <a:ext cx="2917135" cy="2908355"/>
+          <a:off x="9458739" y="14627087"/>
+          <a:ext cx="2923761" cy="2873568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2905,14 +2601,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>438979</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>236307</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>129300</xdr:rowOff>
+      <xdr:colOff>95503</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>129301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2943,13 +2639,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>629480</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>66262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>84916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2981,13 +2677,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>579784</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>91110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>414132</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>112367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3017,28 +2713,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>467138</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>202096</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>94420</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>521805</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="直接箭头连接符 56"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="44" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5279334" y="3515139"/>
-          <a:ext cx="2435087" cy="3205368"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3578087" y="3072848"/>
+          <a:ext cx="1151283" cy="115956"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3066,26 +2760,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>314740</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>115956</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>102703</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>538370</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="60" name="直接箭头连接符 59"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5126936" y="3503544"/>
-          <a:ext cx="2551042" cy="3362739"/>
+        <a:xfrm>
+          <a:off x="3622812" y="3205368"/>
+          <a:ext cx="1123123" cy="107675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3115,13 +2812,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>546651</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>74542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>525945</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:colOff>385140</xdr:colOff>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>38927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3215,13 +2912,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>546652</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>157369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3275,13 +2972,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>431524</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>141633</xdr:colOff>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3316,6 +3013,997 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631963</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接箭头连接符 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9839739" y="1118151"/>
+          <a:ext cx="1874354" cy="1141344"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>665921</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631963</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直接箭头连接符 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8998225" y="2198204"/>
+          <a:ext cx="2715868" cy="61291"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>662609</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631963</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直接箭头连接符 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8994913" y="2557669"/>
+          <a:ext cx="2719180" cy="730527"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631963</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12424</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直接箭头连接符 80"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11714093" y="2557669"/>
+          <a:ext cx="67918" cy="2892288"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53837</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>70403</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直接箭头连接符 84"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8386141" y="3437283"/>
+          <a:ext cx="16566" cy="397565"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563218</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631963</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直接箭头连接符 89"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8895522" y="2557669"/>
+          <a:ext cx="2818571" cy="3173896"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>629479</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直接箭头连接符 108"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5822674" y="3511826"/>
+          <a:ext cx="4737653" cy="2965174"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>443120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393424</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直接箭头连接符 111"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5338142" y="3462130"/>
+          <a:ext cx="637760" cy="2103783"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73715</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120099</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直接箭头连接符 139"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8406019" y="2347291"/>
+          <a:ext cx="2108754" cy="4195970"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227772</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120099</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直接箭头连接符 142"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9247533" y="1267238"/>
+          <a:ext cx="1267240" cy="5276023"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281608</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>223631</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直接箭头连接符 163"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5176630" y="3520109"/>
+          <a:ext cx="629479" cy="2070652"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631963</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="直接箭头连接符 178"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5975902" y="2557669"/>
+          <a:ext cx="5738191" cy="3008244"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>70403</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>124240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120099</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="直接箭头连接符 181"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8402707" y="3437283"/>
+          <a:ext cx="2112066" cy="3105978"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>120099</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12424</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直接箭头连接符 184"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10514773" y="5748131"/>
+          <a:ext cx="1267238" cy="795130"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393424</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="188" name="直接箭头连接符 187"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5975902" y="5864087"/>
+          <a:ext cx="3905251" cy="828261"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>417443</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>202097</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="192" name="直接箭头连接符 191"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5312465" y="6692348"/>
+          <a:ext cx="4568688" cy="135836"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631963</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>188843</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="195" name="直接箭头连接符 194"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9727096" y="541682"/>
+          <a:ext cx="1986997" cy="1717813"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>443120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127553</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="198" name="直接箭头连接符 197"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5338142" y="541682"/>
+          <a:ext cx="3121715" cy="2622274"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393424</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>73716</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="201" name="直接箭头连接符 200"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5975902" y="690769"/>
+          <a:ext cx="3117575" cy="4875144"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="206" name="直接箭头连接符 205"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6021457" y="3503543"/>
+          <a:ext cx="4505739" cy="2865783"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3656,17 +4344,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q177"/>
+  <dimension ref="A1:Q172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:XFD125"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3714,83 +4407,32 @@
         <v>18</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="K8" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="K11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="K13" s="1">
-        <v>9</v>
-      </c>
+      <c r="K8" s="3"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="D16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>5</v>
-      </c>
-      <c r="K16" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16">
-      <c r="K18" s="1">
-        <v>11</v>
-      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="19" spans="4:16">
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
+      <c r="D19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="4:16">
-      <c r="N20" s="7">
-        <v>18</v>
-      </c>
+      <c r="N20" s="7"/>
     </row>
     <row r="22" spans="4:16">
-      <c r="I22" s="3">
-        <v>15</v>
-      </c>
-      <c r="K22" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="4:16">
-      <c r="K25" s="1">
-        <v>13</v>
-      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="27" spans="4:16">
-      <c r="N27" s="6">
-        <v>16</v>
-      </c>
+      <c r="N27" s="6"/>
     </row>
     <row r="29" spans="4:16">
-      <c r="K29" s="1">
-        <v>14</v>
-      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -3805,9 +4447,6 @@
       <c r="P30" s="4"/>
     </row>
     <row r="32" spans="4:16">
-      <c r="K32" s="1">
-        <v>17</v>
-      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3840,7 +4479,7 @@
     </row>
     <row r="37" spans="2:14">
       <c r="C37" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3851,7 +4490,7 @@
     <row r="38" spans="2:14">
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3861,7 +4500,7 @@
     <row r="39" spans="2:14">
       <c r="C39" s="5"/>
       <c r="D39" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3870,7 +4509,7 @@
     <row r="40" spans="2:14">
       <c r="C40" s="5"/>
       <c r="D40" s="4" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -3879,7 +4518,7 @@
     <row r="41" spans="2:14">
       <c r="C41" s="5"/>
       <c r="D41" s="4" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3888,7 +4527,7 @@
     <row r="42" spans="2:14">
       <c r="C42" s="5"/>
       <c r="D42" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -3897,7 +4536,7 @@
     <row r="43" spans="2:14">
       <c r="C43" s="5"/>
       <c r="D43" s="4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3906,7 +4545,7 @@
     <row r="44" spans="2:14">
       <c r="C44" s="5"/>
       <c r="D44" s="4" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3915,7 +4554,7 @@
     <row r="45" spans="2:14">
       <c r="C45" s="5"/>
       <c r="D45" s="4" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3924,7 +4563,7 @@
     <row r="46" spans="2:14">
       <c r="C46" s="5"/>
       <c r="D46" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3933,7 +4572,7 @@
     <row r="47" spans="2:14">
       <c r="C47" s="5"/>
       <c r="D47" s="4" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3942,22 +4581,22 @@
     <row r="48" spans="2:14">
       <c r="C48" s="5"/>
       <c r="D48" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="3:8">
+    <row r="49" spans="3:13">
       <c r="C49" s="5"/>
       <c r="D49" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="3:8">
+    <row r="50" spans="3:13">
       <c r="C50" s="5"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -3965,9 +4604,9 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="3:8">
+    <row r="51" spans="3:13">
       <c r="C51" s="5" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -3975,530 +4614,1149 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="4">
+    <row r="52" spans="3:13">
+      <c r="C52" s="5"/>
+      <c r="D52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" s="5"/>
+      <c r="D53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="3:8">
-      <c r="C53" s="4">
-        <v>2</v>
-      </c>
-      <c r="D53" s="4" t="s">
+      <c r="I53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" s="5"/>
+      <c r="D54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J54" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" s="5"/>
+      <c r="D55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J55" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13">
+      <c r="C56" s="5"/>
+      <c r="D56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H56" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J56" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" s="5"/>
+      <c r="D57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J57" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58" s="5"/>
+      <c r="D58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J58" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13">
+      <c r="C59" s="5"/>
+      <c r="D59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="C60" s="5"/>
+      <c r="D60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61" s="5"/>
+      <c r="D61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J61" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62" s="5"/>
+      <c r="D62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J62" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13">
+      <c r="C63" s="5"/>
+      <c r="D63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13">
+      <c r="C64" s="5"/>
+      <c r="D64" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13">
+      <c r="C65" s="5"/>
+      <c r="D65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J65" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" s="5"/>
+      <c r="D66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" s="5"/>
+      <c r="D67" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" s="5"/>
+      <c r="D68" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J68" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" s="5"/>
+      <c r="D69" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J69" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13">
+      <c r="C70" s="5"/>
+      <c r="D70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" s="5"/>
+      <c r="D71" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J71" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" s="5"/>
+      <c r="D72" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13">
+      <c r="C73" s="5"/>
+      <c r="D73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J73" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="C74" s="5"/>
+      <c r="D74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H74" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" s="5"/>
+      <c r="D75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J75" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13">
+      <c r="C76" s="5"/>
+      <c r="D76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H76" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J76" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="C77" s="5"/>
+      <c r="D77" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H77" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="3:13">
+      <c r="C78" s="5"/>
+      <c r="D78" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H78" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J78" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13">
+      <c r="C79" s="5"/>
+      <c r="D79" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J79" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13">
+      <c r="C80" s="5"/>
+      <c r="D80" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="C81" s="5"/>
+      <c r="D81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J81" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="C82" s="5"/>
+      <c r="D82" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H82" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="C83" s="5"/>
+      <c r="D83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="C84" s="5"/>
+      <c r="D84" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="C85" s="5"/>
+      <c r="D85" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H85" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J85" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="C86" s="5"/>
+      <c r="D86" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H86" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="C87" s="5"/>
+      <c r="D87" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="C88" s="5"/>
+      <c r="D88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H88" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J88" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="C89" s="5"/>
+      <c r="D89" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H89" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="C90" s="5"/>
+      <c r="D90" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="C91" s="5"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="97" spans="3:8">
+      <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="4">
-        <v>3</v>
-      </c>
-      <c r="D54" s="4" t="s">
+    </row>
+    <row r="98" spans="3:8">
+      <c r="D98" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="4" t="s">
+    </row>
+    <row r="110" spans="3:8">
+      <c r="C110" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="3:8">
-      <c r="C56" s="4">
-        <v>5</v>
-      </c>
-      <c r="D56" s="4" t="s">
+    </row>
+    <row r="111" spans="3:8">
+      <c r="D111" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="4">
-        <v>6</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="3:8">
-      <c r="C58" s="4">
-        <v>7</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="4" t="s">
+      <c r="E111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="3:8">
-      <c r="D59" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8">
-      <c r="C60" s="1">
-        <v>8</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="112" spans="3:8">
+      <c r="E112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="3:8">
-      <c r="D61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8">
-      <c r="C62" s="1">
-        <v>9</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="1" t="s">
+    <row r="113" spans="4:10">
+      <c r="E113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="3:8">
-      <c r="D63" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8">
-      <c r="C64" s="1">
-        <v>10</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="1" t="s">
+    <row r="114" spans="4:10">
+      <c r="E114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H114" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
-      <c r="D65" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
-      <c r="C66" s="1">
-        <v>11</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="1" t="s">
+    <row r="115" spans="4:10">
+      <c r="E115" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
-      <c r="D67" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="C68" s="1">
-        <v>12</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="D69" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4">
-        <v>13</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="4" t="s">
+    <row r="116" spans="4:10">
+      <c r="E116" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H116" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="2:10">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="2:10">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4">
-        <v>14</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="2:10">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4">
-        <v>15</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="2:10">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4">
-        <v>16</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="2:10">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4">
-        <v>17</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4">
-        <v>18</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="86" spans="2:10">
-      <c r="C86" s="2" t="s">
+    </row>
+    <row r="117" spans="4:10">
+      <c r="E117" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="4:10">
+      <c r="E118" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
-      <c r="D87" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="D88" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="C102" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4">
-      <c r="D103" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="3:10">
-      <c r="C115" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="3:10">
-      <c r="D116" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" spans="3:10">
-      <c r="E117" s="1" t="s">
+    <row r="119" spans="4:10">
+      <c r="D119" s="4"/>
+      <c r="E119" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="4:10">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+    </row>
+    <row r="129" spans="3:17">
+      <c r="C129" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+    </row>
+    <row r="130" spans="3:17">
+      <c r="C130" s="4"/>
+      <c r="D130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+    </row>
+    <row r="131" spans="3:17">
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+    </row>
+    <row r="132" spans="3:17">
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="118" spans="3:10">
-      <c r="E118" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="3:10">
-      <c r="E119" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="3:10">
-      <c r="E120" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H120" s="1" t="s">
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+    </row>
+    <row r="133" spans="3:17">
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="121" spans="3:10">
-      <c r="E121" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="3:10">
-      <c r="E122" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="123" spans="3:10">
-      <c r="E123" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="3:10">
-      <c r="D124" s="4"/>
-      <c r="E124" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-    </row>
-    <row r="125" spans="3:10">
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
     </row>
     <row r="134" spans="3:17">
-      <c r="C134" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -4515,16 +5773,6 @@
       <c r="Q134" s="4"/>
     </row>
     <row r="135" spans="3:17">
-      <c r="C135" s="4"/>
-      <c r="D135" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
@@ -4538,9 +5786,7 @@
     <row r="136" spans="3:17">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
@@ -4557,9 +5803,7 @@
     <row r="137" spans="3:17">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
@@ -4576,9 +5820,7 @@
     <row r="138" spans="3:17">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
@@ -4610,6 +5852,12 @@
       <c r="Q139" s="4"/>
     </row>
     <row r="140" spans="3:17">
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
@@ -5080,7 +6328,9 @@
       <c r="Q167" s="4"/>
     </row>
     <row r="168" spans="3:17">
-      <c r="C168" s="4"/>
+      <c r="C168" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -5098,7 +6348,9 @@
     </row>
     <row r="169" spans="3:17">
       <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -5114,113 +6366,24 @@
       <c r="Q169" s="4"/>
     </row>
     <row r="170" spans="3:17">
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
-      <c r="Q170" s="4"/>
+      <c r="D170" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="171" spans="3:17">
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="4"/>
-      <c r="O171" s="4"/>
-      <c r="P171" s="4"/>
-      <c r="Q171" s="4"/>
+      <c r="D171" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="172" spans="3:17">
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
-      <c r="Q172" s="4"/>
-    </row>
-    <row r="173" spans="3:17">
-      <c r="C173" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-    </row>
-    <row r="174" spans="3:17">
-      <c r="C174" s="4"/>
-      <c r="D174" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
-      <c r="Q174" s="4"/>
-    </row>
-    <row r="175" spans="3:17">
-      <c r="D175" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="176" spans="3:17">
-      <c r="D176" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="177" spans="3:8">
-      <c r="C177" s="9"/>
-      <c r="D177" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5228,4 +6391,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gd/其他/状态机自动生成.xlsx
+++ b/gd/其他/状态机自动生成.xlsx
@@ -11,12 +11,12 @@
     <sheet name="状态机逻辑" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
   <si>
     <t>状态机自动生成方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -392,6 +392,45 @@
   </si>
   <si>
     <t>检测目录中是否有XX@dazhao，如果没有则不必生成dazhao项及相关Transition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toulan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +469,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +479,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -473,6 +518,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2367,25 +2413,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>339587</xdr:colOff>
+      <xdr:colOff>331304</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>182218</xdr:rowOff>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>331305</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>24848</xdr:rowOff>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4547152" y="3495261"/>
-          <a:ext cx="679175" cy="3155674"/>
+        <a:xfrm flipV="1">
+          <a:off x="5201478" y="3462130"/>
+          <a:ext cx="956642" cy="3221935"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2563,13 +2611,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>107177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2601,13 +2649,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>438979</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95503</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>129301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2639,13 +2687,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>629480</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>66262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>84916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2677,13 +2725,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>579784</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>91110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>414132</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>112367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2812,13 +2860,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>546651</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>74542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>385140</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>38927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2912,13 +2960,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>546652</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>157369</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2972,13 +3020,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>141633</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3562,28 +3610,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>393424</xdr:colOff>
+      <xdr:colOff>646044</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>72886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>631963</xdr:colOff>
+      <xdr:colOff>631962</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="179" name="直接箭头连接符 178"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="7" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5975902" y="2557669"/>
-          <a:ext cx="5738191" cy="3008244"/>
+          <a:off x="7205870" y="2557669"/>
+          <a:ext cx="5626375" cy="2999961"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3861,56 +3908,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>443120</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>127552</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>127553</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="198" name="直接箭头连接符 197"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5338142" y="541682"/>
-          <a:ext cx="3121715" cy="2622274"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>393424</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3998,6 +3995,538 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339586</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7727673" y="5715000"/>
+          <a:ext cx="1101588" cy="16565"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>463826</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227773</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直接箭头连接符 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7023652" y="1267238"/>
+          <a:ext cx="3342034" cy="4298675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>911088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直接箭头连接符 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5781262" y="1283804"/>
+          <a:ext cx="3942521" cy="5375413"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>73714</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直接箭头连接符 90"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7388087" y="2347291"/>
+          <a:ext cx="2136084" cy="3235187"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273327</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596347</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直接箭头连接符 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6145697" y="2327413"/>
+          <a:ext cx="3901107" cy="4323522"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347870</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直接箭头连接符 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7735957" y="4166152"/>
+          <a:ext cx="1623391" cy="1358348"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>389282</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直接箭头连接符 103"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6261652" y="4149587"/>
+          <a:ext cx="2816087" cy="2567609"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>662609</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12424</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直接箭头连接符 107"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10113066" y="3288196"/>
+          <a:ext cx="2787097" cy="2161761"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127553</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直接箭头连接符 112"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6419022" y="541682"/>
+          <a:ext cx="3158988" cy="2597427"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>631962</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>198782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直接箭头连接符 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11678478" y="2557669"/>
+          <a:ext cx="1153767" cy="3853070"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>513521</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>157369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直接箭头连接符 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6385891" y="5748130"/>
+          <a:ext cx="5996609" cy="985631"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4344,10 +4873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q172"/>
+  <dimension ref="A1:Q189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95:J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4856,110 +5385,116 @@
     </row>
     <row r="62" spans="3:13">
       <c r="C62" s="5"/>
-      <c r="D62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J62" s="1" t="b">
+      <c r="D62" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:13">
       <c r="C63" s="5"/>
-      <c r="D63" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H63" s="1" t="b">
+      <c r="D63" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H63" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="10" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="64" spans="3:13">
       <c r="C64" s="5"/>
-      <c r="D64" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64" s="1" t="b">
+      <c r="D64" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="10" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="65" spans="3:13">
       <c r="C65" s="5"/>
-      <c r="D65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H65" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J65" s="1" t="b">
+      <c r="D65" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="3:13">
       <c r="C66" s="5"/>
       <c r="D66" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H66" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>82</v>
@@ -4971,163 +5506,155 @@
     <row r="67" spans="3:13">
       <c r="C67" s="5"/>
       <c r="D67" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H67" s="4" t="b">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J67" s="1" t="b">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="3:13">
       <c r="C68" s="5"/>
       <c r="D68" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H68" s="4" t="b">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J68" s="1" t="b">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="3:13">
       <c r="C69" s="5"/>
-      <c r="D69" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H69" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" s="1" t="s">
+      <c r="D69" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J69" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="F69" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" spans="3:13">
       <c r="C70" s="5"/>
-      <c r="D70" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="D70" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H70" s="4" t="b">
+      <c r="G70" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H70" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J70" s="1" t="b">
+      <c r="J70" s="10" t="b">
         <v>0</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="71" spans="3:13">
       <c r="C71" s="5"/>
-      <c r="D71" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="4" t="s">
+      <c r="D71" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" s="4" t="b">
+      <c r="G71" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J71" s="1" t="b">
+      <c r="J71" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="3:13">
       <c r="C72" s="5"/>
       <c r="D72" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H72" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>91</v>
+      <c r="J72" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="3:13">
       <c r="C73" s="5"/>
       <c r="D73" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H73" s="1" t="b">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>82</v>
@@ -5139,40 +5666,43 @@
     <row r="74" spans="3:13">
       <c r="C74" s="5"/>
       <c r="D74" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H74" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="J74" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="3:13">
       <c r="C75" s="5"/>
       <c r="D75" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H75" s="1" t="b">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>82</v>
@@ -5184,19 +5714,19 @@
     <row r="76" spans="3:13">
       <c r="C76" s="5"/>
       <c r="D76" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="H76" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>82</v>
@@ -5208,40 +5738,46 @@
     <row r="77" spans="3:13">
       <c r="C77" s="5"/>
       <c r="D77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H77" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
+      </c>
+      <c r="J77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="3:13">
       <c r="C78" s="5"/>
       <c r="D78" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H78" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>82</v>
@@ -5253,88 +5789,88 @@
     <row r="79" spans="3:13">
       <c r="C79" s="5"/>
       <c r="D79" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H79" s="4" t="b">
         <v>1</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J79" s="4" t="b">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="3:13">
       <c r="C80" s="5"/>
-      <c r="D80" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="D80" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H80" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="J80" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10">
+      <c r="C81" s="5"/>
+      <c r="D81" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G81" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H80" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="C81" s="5"/>
-      <c r="D81" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H81" s="4" t="b">
+      <c r="J81" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J81" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
+    </row>
+    <row r="82" spans="3:10">
       <c r="C82" s="5"/>
       <c r="D82" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H82" s="4" t="b">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H82" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>82</v>
@@ -5343,10 +5879,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="3:10">
       <c r="C83" s="5"/>
       <c r="D83" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>82</v>
@@ -5364,121 +5900,130 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="3:10">
       <c r="C84" s="5"/>
-      <c r="D84" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="D84" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="H84" s="1" t="b">
+      <c r="J84" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
+    </row>
+    <row r="85" spans="3:10">
       <c r="C85" s="5"/>
-      <c r="D85" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F85" s="4" t="s">
+      <c r="D85" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G85" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H85" s="4" t="b">
+      <c r="G85" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H85" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J85" s="1" t="b">
+      <c r="J85" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="3:10">
       <c r="C86" s="5"/>
       <c r="D86" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G86" s="4" t="s">
+      <c r="H86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H86" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="J86" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10">
       <c r="C87" s="5"/>
       <c r="D87" s="4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H87" s="1" t="b">
+      <c r="J87" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10">
+    </row>
+    <row r="88" spans="3:10">
       <c r="C88" s="5"/>
-      <c r="D88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F88" s="4" t="s">
+      <c r="D88" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H88" s="4" t="b">
+      <c r="G88" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J88" s="1" t="b">
+      <c r="J88" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="3:10">
       <c r="C89" s="5"/>
       <c r="D89" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>82</v>
@@ -5496,312 +6041,550 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="3:10">
       <c r="C90" s="5"/>
       <c r="D90" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F90" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H90" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91" s="5"/>
+      <c r="D91" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H90" s="1" t="b">
+      <c r="J91" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I90" s="1" t="s">
+    </row>
+    <row r="92" spans="3:10">
+      <c r="C92" s="5"/>
+      <c r="D92" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H92" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="2:10">
-      <c r="C91" s="5"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4" t="s">
+    <row r="93" spans="3:10">
+      <c r="C93" s="5"/>
+      <c r="D93" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H93" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J93" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10">
+      <c r="C94" s="5"/>
+      <c r="D94" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J94" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:10">
+      <c r="C95" s="5"/>
+      <c r="D95" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J95" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:10">
+      <c r="C96" s="5"/>
+      <c r="D96" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H96" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J96" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="C97" s="5"/>
+      <c r="D97" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H97" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J97" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="C98" s="5"/>
+      <c r="D98" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="C99" s="5"/>
+      <c r="D99" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="C100" s="5"/>
+      <c r="D100" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H100" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J100" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="C101" s="5"/>
+      <c r="D101" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H101" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="C102" s="5"/>
+      <c r="D102" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="C103" s="5"/>
+      <c r="D103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H103" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J103" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="C104" s="5"/>
+      <c r="D104" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H104" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="C105" s="5"/>
+      <c r="D105" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H105" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J105" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="C106" s="5"/>
+      <c r="D106" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H106" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J106" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="C107" s="5"/>
+      <c r="D107" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="C108" s="5"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="8" t="s">
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-    </row>
-    <row r="97" spans="3:8">
-      <c r="C97" s="2" t="s">
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="114" spans="3:8">
+      <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="3:8">
-      <c r="D98" s="1" t="s">
+    <row r="115" spans="3:8">
+      <c r="D115" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="3:8">
-      <c r="C110" s="2" t="s">
+    <row r="127" spans="3:8">
+      <c r="C127" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="3:8">
-      <c r="D111" s="1" t="s">
+    <row r="128" spans="3:8">
+      <c r="D128" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="3:8">
-      <c r="E112" s="1" t="s">
+    <row r="129" spans="4:10">
+      <c r="E129" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="4:10">
-      <c r="E113" s="1" t="s">
+    <row r="130" spans="4:10">
+      <c r="E130" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H130" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="4:10">
-      <c r="E114" s="1" t="s">
+    <row r="131" spans="4:10">
+      <c r="E131" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="4:10">
-      <c r="E115" s="1" t="s">
+    <row r="132" spans="4:10">
+      <c r="E132" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="4:10">
-      <c r="E116" s="1" t="s">
+    <row r="133" spans="4:10">
+      <c r="E133" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H133" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="4:10">
-      <c r="E117" s="1" t="s">
+    <row r="134" spans="4:10">
+      <c r="E134" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="4:10">
-      <c r="E118" s="1" t="s">
+    <row r="135" spans="4:10">
+      <c r="E135" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="4:10">
-      <c r="D119" s="4"/>
-      <c r="E119" s="4" t="s">
+    <row r="136" spans="4:10">
+      <c r="D136" s="4"/>
+      <c r="E136" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-    </row>
-    <row r="120" spans="4:10">
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-    </row>
-    <row r="129" spans="3:17">
-      <c r="C129" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-    </row>
-    <row r="130" spans="3:17">
-      <c r="C130" s="4"/>
-      <c r="D130" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-    </row>
-    <row r="131" spans="3:17">
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-    </row>
-    <row r="132" spans="3:17">
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-    </row>
-    <row r="133" spans="3:17">
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-    </row>
-    <row r="134" spans="3:17">
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="4"/>
-      <c r="Q134" s="4"/>
-    </row>
-    <row r="135" spans="3:17">
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-    </row>
-    <row r="136" spans="3:17">
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
+      <c r="H136" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="4"/>
-      <c r="Q136" s="4"/>
-    </row>
-    <row r="137" spans="3:17">
-      <c r="C137" s="4"/>
+    </row>
+    <row r="137" spans="4:10">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -5809,152 +6592,11 @@
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="4"/>
-      <c r="Q137" s="4"/>
-    </row>
-    <row r="138" spans="3:17">
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-    </row>
-    <row r="139" spans="3:17">
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-    </row>
-    <row r="140" spans="3:17">
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-    </row>
-    <row r="141" spans="3:17">
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-    </row>
-    <row r="142" spans="3:17">
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-    </row>
-    <row r="143" spans="3:17">
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-    </row>
-    <row r="144" spans="3:17">
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-    </row>
-    <row r="145" spans="3:17">
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="4"/>
-      <c r="Q145" s="4"/>
     </row>
     <row r="146" spans="3:17">
-      <c r="C146" s="4"/>
+      <c r="C146" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -5972,8 +6614,12 @@
     </row>
     <row r="147" spans="3:17">
       <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
       <c r="H147" s="4"/>
@@ -5990,7 +6636,9 @@
     <row r="148" spans="3:17">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="E148" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
@@ -6007,7 +6655,9 @@
     <row r="149" spans="3:17">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
+      <c r="E149" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
       <c r="H149" s="4"/>
@@ -6024,7 +6674,9 @@
     <row r="150" spans="3:17">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
+      <c r="E150" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -6056,12 +6708,6 @@
       <c r="Q151" s="4"/>
     </row>
     <row r="152" spans="3:17">
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
@@ -6328,9 +6974,7 @@
       <c r="Q167" s="4"/>
     </row>
     <row r="168" spans="3:17">
-      <c r="C168" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
@@ -6348,9 +6992,7 @@
     </row>
     <row r="169" spans="3:17">
       <c r="C169" s="4"/>
-      <c r="D169" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -6366,24 +7008,317 @@
       <c r="Q169" s="4"/>
     </row>
     <row r="170" spans="3:17">
-      <c r="D170" s="1" t="s">
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+    </row>
+    <row r="171" spans="3:17">
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+    </row>
+    <row r="172" spans="3:17">
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+    </row>
+    <row r="173" spans="3:17">
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+    </row>
+    <row r="174" spans="3:17">
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+    </row>
+    <row r="175" spans="3:17">
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+    </row>
+    <row r="176" spans="3:17">
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+    </row>
+    <row r="177" spans="3:17">
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+    </row>
+    <row r="178" spans="3:17">
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="4"/>
+      <c r="J178" s="4"/>
+      <c r="K178" s="4"/>
+      <c r="L178" s="4"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="4"/>
+      <c r="O178" s="4"/>
+      <c r="P178" s="4"/>
+      <c r="Q178" s="4"/>
+    </row>
+    <row r="179" spans="3:17">
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4"/>
+      <c r="K179" s="4"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="4"/>
+      <c r="N179" s="4"/>
+      <c r="O179" s="4"/>
+      <c r="P179" s="4"/>
+      <c r="Q179" s="4"/>
+    </row>
+    <row r="180" spans="3:17">
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+    </row>
+    <row r="181" spans="3:17">
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+    </row>
+    <row r="182" spans="3:17">
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+    </row>
+    <row r="183" spans="3:17">
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4"/>
+      <c r="K183" s="4"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4"/>
+      <c r="O183" s="4"/>
+      <c r="P183" s="4"/>
+      <c r="Q183" s="4"/>
+    </row>
+    <row r="184" spans="3:17">
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4"/>
+      <c r="K184" s="4"/>
+      <c r="L184" s="4"/>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4"/>
+      <c r="O184" s="4"/>
+      <c r="P184" s="4"/>
+      <c r="Q184" s="4"/>
+    </row>
+    <row r="185" spans="3:17">
+      <c r="C185" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+    </row>
+    <row r="186" spans="3:17">
+      <c r="C186" s="4"/>
+      <c r="D186" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4"/>
+      <c r="K186" s="4"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="4"/>
+      <c r="N186" s="4"/>
+      <c r="O186" s="4"/>
+      <c r="P186" s="4"/>
+      <c r="Q186" s="4"/>
+    </row>
+    <row r="187" spans="3:17">
+      <c r="D187" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="3:17">
-      <c r="D171" s="1" t="s">
+    <row r="188" spans="3:17">
+      <c r="D188" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="3:17">
-      <c r="C172" s="9"/>
-      <c r="D172" s="9" t="s">
+    <row r="189" spans="3:17">
+      <c r="C189" s="9"/>
+      <c r="D189" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E172" s="9"/>
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+      <c r="H189" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/gd/其他/状态机自动生成.xlsx
+++ b/gd/其他/状态机自动生成.xlsx
@@ -11,12 +11,12 @@
     <sheet name="状态机逻辑" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="114">
   <si>
     <t>状态机自动生成方法</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -255,11 +255,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>此部分动作中Can Transition To Self置成非勾选</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Any State可以转到的状态需要将Can Transition To Self置成非勾选</t>
+    <t>状态转换参数设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuchang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fagong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangyu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toulan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoukong</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -267,31 +299,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>dazhaoxuanyao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>shengli</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>shoukong</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>状态转换参数设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>daiji</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chuchang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fagong</t>
+    <t>siwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key值：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>has Exit time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测目录中是否有XX@dazhao，如果没有则不必生成dazhao项及相关Transition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouji</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -299,7 +383,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>wugong</t>
+    <t>shengli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>siwang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paobu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toulan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -307,51 +410,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>toulan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoukong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>siwang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhaoxuanyao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shengli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shengli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoukong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>siwang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shouji</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dazhao</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>状态列表：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡不需要加事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>√</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -359,27 +441,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>key1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key值：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>has Exit time</t>
+    <t>any state链接未删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御和死亡未删除事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其余是都加在第一帧了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均未勾选loop pose</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -387,66 +461,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>检测目录中是否有XX@dazhao，如果没有则不必生成dazhao项及相关Transition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shengli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shouji</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paobu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shengli</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>siwang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>paobu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>toulan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>×</t>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangyu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazhao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态列表：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>siwang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡不需要加事件</t>
+    <t>has Exit time不应该勾上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +507,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -519,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -529,6 +559,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -712,16 +746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>107177</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>198285</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -738,7 +772,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9458739" y="14627087"/>
+          <a:off x="10237304" y="9127434"/>
           <a:ext cx="2923761" cy="2873568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -751,15 +785,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>438979</xdr:colOff>
+      <xdr:colOff>637762</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>95503</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>129300</xdr:rowOff>
+      <xdr:colOff>294286</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>21626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -776,8 +810,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5925379" y="16797130"/>
-          <a:ext cx="4597928" cy="2610770"/>
+          <a:off x="7197588" y="17525999"/>
+          <a:ext cx="4609524" cy="2580953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,16 +822,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>629480</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314741</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>132523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>84916</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447260</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>151177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -814,8 +848,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6801680" y="19973512"/>
-          <a:ext cx="3559863" cy="3790554"/>
+          <a:off x="9077741" y="20217849"/>
+          <a:ext cx="3569802" cy="3745828"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -826,16 +860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>579784</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>91110</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>521805</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>414132</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>112367</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>356153</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>70953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,8 +886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10866784" y="19998360"/>
-          <a:ext cx="2577548" cy="1069007"/>
+          <a:off x="12722088" y="21170348"/>
+          <a:ext cx="2584174" cy="1056583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,16 +945,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>546652</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>132521</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>554936</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>231913</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>157369</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>554935</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -929,8 +963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1234109" y="31192304"/>
-          <a:ext cx="1830456" cy="231913"/>
+          <a:off x="13442675" y="21269739"/>
+          <a:ext cx="2062369" cy="231913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -967,53 +1001,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>141633</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2062370" y="39342391"/>
-          <a:ext cx="4639089" cy="3503543"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1356,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1379,7 +1366,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1426,7 +1413,9 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -1436,7 +1425,9 @@
         <v>23</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -1446,7 +1437,9 @@
         <v>50</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:13">
@@ -1455,7 +1448,9 @@
         <v>51</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:13">
@@ -1464,7 +1459,9 @@
         <v>52</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:13">
@@ -1473,7 +1470,9 @@
         <v>53</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:13">
@@ -1482,7 +1481,9 @@
         <v>54</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:13">
@@ -1491,7 +1492,9 @@
         <v>55</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:13">
@@ -1500,7 +1503,9 @@
         <v>56</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:13">
@@ -1509,7 +1514,9 @@
         <v>57</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:13">
@@ -1518,7 +1525,9 @@
         <v>59</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:13">
@@ -1527,7 +1536,9 @@
         <v>58</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:13">
@@ -1536,7 +1547,9 @@
         <v>60</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="3:13">
@@ -1549,7 +1562,7 @@
     </row>
     <row r="18" spans="3:13">
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1560,243 +1573,272 @@
     <row r="19" spans="3:13">
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:13">
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J20" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="3:13">
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J21" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="3:13">
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J22" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="3:13">
       <c r="C23" s="4"/>
       <c r="D23" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="3:13">
       <c r="C24" s="4"/>
       <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J24" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="3:13">
       <c r="C25" s="4"/>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H25" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="3:13">
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="3:13">
       <c r="C27" s="4"/>
       <c r="D27" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="3:13">
       <c r="C28" s="4"/>
       <c r="D28" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="29" spans="3:13">
       <c r="C29" s="4"/>
@@ -1804,13 +1846,13 @@
         <v>42</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H29" s="3" t="b">
         <v>1</v>
@@ -1821,7 +1863,9 @@
       <c r="J29" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="4"/>
@@ -1829,13 +1873,13 @@
         <v>42</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H30" s="3" t="b">
         <v>1</v>
@@ -1846,7 +1890,9 @@
       <c r="J30" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="31" spans="3:13">
       <c r="C31" s="4"/>
@@ -1854,13 +1900,13 @@
         <v>42</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H31" s="3" t="b">
         <v>1</v>
@@ -1871,7 +1917,9 @@
       <c r="J31" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="32" spans="3:13">
       <c r="C32" s="4"/>
@@ -1879,13 +1927,13 @@
         <v>42</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H32" s="3" t="b">
         <v>1</v>
@@ -1896,78 +1944,86 @@
       <c r="J32" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="33" spans="3:13">
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H33" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J33" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K33" s="3"/>
+      <c r="K33" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="34" spans="3:13">
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="35" spans="3:13">
       <c r="C35" s="4"/>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="36" spans="3:13">
       <c r="C36" s="4"/>
@@ -1975,22 +2031,24 @@
         <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H36" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="37" spans="3:13">
       <c r="C37" s="4"/>
@@ -1998,24 +2056,26 @@
         <v>35</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H37" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J37" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="3:13">
       <c r="C38" s="4"/>
@@ -2023,984 +2083,1108 @@
         <v>35</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H38" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="39" spans="3:13">
       <c r="C39" s="4"/>
       <c r="D39" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H39" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="40" spans="3:13">
       <c r="C40" s="4"/>
       <c r="D40" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H40" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J40" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="41" spans="3:13">
       <c r="C41" s="4"/>
       <c r="D41" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H41" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J41" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="3:13">
       <c r="C42" s="4"/>
       <c r="D42" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H42" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J42" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="3:13">
       <c r="C43" s="4"/>
       <c r="D43" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="H43" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J43" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="3:13">
       <c r="C44" s="4"/>
       <c r="D44" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H44" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J44" s="1" t="b">
-        <v>0</v>
+      <c r="I44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="3:13">
       <c r="C45" s="4"/>
-      <c r="D45" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J45" s="6" t="b">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="3:13">
       <c r="C46" s="4"/>
       <c r="D46" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H46" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46" s="1" t="b">
-        <v>0</v>
+      <c r="I46" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="3:13">
       <c r="C47" s="4"/>
       <c r="D47" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H47" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>90</v>
+      <c r="I47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="3:13">
       <c r="C48" s="4"/>
-      <c r="D48" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10">
+      <c r="D48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12">
       <c r="C49" s="4"/>
       <c r="D49" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H49" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J49" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:10">
+      <c r="K49" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
       <c r="C50" s="4"/>
       <c r="D50" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H50" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J50" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:10">
+      <c r="K50" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
       <c r="C51" s="4"/>
       <c r="D51" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="3:10">
+      <c r="K51" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12">
       <c r="C52" s="4"/>
       <c r="D52" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F52" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J52" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10">
+      <c r="J52" s="3"/>
+      <c r="K52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
       <c r="C53" s="4"/>
       <c r="D53" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H53" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="3:10">
+        <v>76</v>
+      </c>
+      <c r="J53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12">
       <c r="C54" s="4"/>
       <c r="D54" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H54" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J54" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:10">
+      <c r="K54" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12">
       <c r="C55" s="4"/>
       <c r="D55" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56" s="4"/>
+      <c r="D56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J55" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10">
-      <c r="C56" s="4"/>
-      <c r="D56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H56" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J56" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10">
+      <c r="G56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="3:12">
       <c r="C57" s="4"/>
       <c r="D57" s="3" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H57" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J57" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:10">
+      <c r="K57" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12">
       <c r="C58" s="4"/>
       <c r="D58" s="3" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H58" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J58" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:10">
+      <c r="K58" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
       <c r="C59" s="4"/>
       <c r="D59" s="3" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J59" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10">
+        <v>85</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
       <c r="C60" s="4"/>
       <c r="D60" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H60" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="3:10">
+        <v>76</v>
+      </c>
+      <c r="J60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="3:12">
       <c r="C61" s="4"/>
       <c r="D61" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H61" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J61" s="3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:10">
+      <c r="K61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="3:12">
       <c r="C62" s="4"/>
       <c r="D62" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H62" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J62" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10">
+        <v>85</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="3:12">
       <c r="C63" s="4"/>
       <c r="D63" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H63" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="3:10">
+        <v>94</v>
+      </c>
+      <c r="J63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="3:12">
       <c r="C64" s="4"/>
       <c r="D64" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H64" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J64" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="K64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L64" s="9"/>
     </row>
     <row r="65" spans="2:12">
       <c r="C65" s="4"/>
       <c r="D65" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="H65" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="J65" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="K65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65" s="9"/>
     </row>
     <row r="66" spans="2:12">
       <c r="C66" s="4"/>
       <c r="D66" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H66" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J66" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="K66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L66" s="9"/>
     </row>
     <row r="67" spans="2:12">
       <c r="C67" s="4"/>
       <c r="D67" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H67" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J67" s="3" t="b">
         <v>0</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:12">
       <c r="C68" s="4"/>
       <c r="D68" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="H68" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J68" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L68" s="9"/>
     </row>
     <row r="69" spans="2:12">
       <c r="C69" s="4"/>
       <c r="D69" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H69" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J69" s="3"/>
+      <c r="K69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L69" s="9"/>
     </row>
     <row r="70" spans="2:12">
       <c r="C70" s="4"/>
       <c r="D70" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H70" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J70" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="J70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L70" s="9"/>
     </row>
     <row r="71" spans="2:12">
       <c r="C71" s="4"/>
       <c r="D71" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H71" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J71" s="3" t="b">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="2:12">
       <c r="C72" s="4"/>
       <c r="D72" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H72" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
+      <c r="K72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L72" s="12"/>
     </row>
     <row r="73" spans="2:12">
       <c r="C73" s="4"/>
       <c r="D73" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H73" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="J73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L73" s="12"/>
     </row>
     <row r="74" spans="2:12">
       <c r="C74" s="4"/>
       <c r="D74" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H74" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J74" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L74" s="12"/>
     </row>
     <row r="75" spans="2:12">
       <c r="C75" s="4"/>
       <c r="D75" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H75" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="J75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L75" s="12"/>
     </row>
     <row r="76" spans="2:12">
       <c r="C76" s="4"/>
       <c r="D76" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H76" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
+      <c r="K76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L76" s="12"/>
     </row>
     <row r="77" spans="2:12">
       <c r="C77" s="4"/>
       <c r="D77" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H77" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J77" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="78" spans="2:12">
       <c r="C78" s="4"/>
-      <c r="D78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H78" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="K78" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="2:12">
-      <c r="C79" s="4"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -3024,7 +3208,7 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3061,6 +3245,9 @@
       <c r="H99" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="J99" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="100" spans="3:10">
       <c r="E100" s="1" t="s">
@@ -3069,6 +3256,9 @@
       <c r="H100" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="J100" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="101" spans="3:10">
       <c r="E101" s="1" t="s">
@@ -3077,13 +3267,19 @@
       <c r="H101" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="J101" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="102" spans="3:10">
       <c r="E102" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="3:10">
@@ -3093,16 +3289,22 @@
       <c r="H103" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="J103" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="104" spans="3:10">
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="8" t="s">
         <v>38</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>30</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="3:10">
@@ -3112,6 +3314,9 @@
       <c r="H105" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="J105" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="106" spans="3:10">
       <c r="E106" s="1" t="s">
@@ -3119,6 +3324,9 @@
       </c>
       <c r="H106" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="3:10">
@@ -3132,7 +3340,9 @@
         <v>49</v>
       </c>
       <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="J107" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="108" spans="3:10">
       <c r="D108" s="3"/>
@@ -3140,8 +3350,15 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
+      <c r="I108" s="11" t="s">
+        <v>109</v>
+      </c>
       <c r="J108" s="3"/>
+    </row>
+    <row r="109" spans="3:10">
+      <c r="I109" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="117" spans="3:17">
       <c r="C117" s="4" t="s">
@@ -3170,7 +3387,9 @@
       <c r="E118" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F118" s="3"/>
+      <c r="F118" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -3189,7 +3408,9 @@
       <c r="E119" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F119" s="3"/>
+      <c r="F119" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -3208,7 +3429,9 @@
       <c r="E120" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F120" s="3"/>
+      <c r="F120" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -3227,7 +3450,9 @@
       <c r="E121" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F121" s="3"/>
+      <c r="F121" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -3246,7 +3471,9 @@
       <c r="E122" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F122" s="3"/>
+      <c r="F122" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -3261,6 +3488,9 @@
     </row>
     <row r="123" spans="3:17">
       <c r="E123" s="7"/>
+      <c r="F123" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -3816,9 +4046,7 @@
       <c r="Q155" s="3"/>
     </row>
     <row r="156" spans="3:17">
-      <c r="C156" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C156" s="4"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -3836,9 +4064,7 @@
     </row>
     <row r="157" spans="3:17">
       <c r="C157" s="3"/>
-      <c r="D157" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -3853,25 +4079,13 @@
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
     </row>
-    <row r="158" spans="3:17">
-      <c r="D158" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="159" spans="3:17">
-      <c r="D159" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="160" spans="3:17">
-      <c r="C160" s="6"/>
-      <c r="D160" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
